--- a/Jogos_do_Dia/2023-11-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M2" t="n">
         <v>1.43</v>
@@ -718,10 +718,10 @@
         <v>3.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.3</v>
+        <v>2.06</v>
       </c>
       <c r="T2" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -824,19 +824,19 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -851,22 +851,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -930,6 +930,145 @@
       </c>
       <c r="AQ3" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M2" t="n">
         <v>1.43</v>
@@ -718,10 +718,10 @@
         <v>3.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -739,10 +739,10 @@
         <v>1.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
         <v>1.26</v>
@@ -754,37 +754,37 @@
         <v>2.74</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -821,34 +821,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.49</v>
@@ -857,25 +857,25 @@
         <v>2.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="Z3" t="n">
         <v>1.06</v>
@@ -893,13 +893,13 @@
         <v>3.03</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AF3" t="n">
         <v>8.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="AH3" t="n">
         <v>1.23</v>
@@ -963,43 +963,43 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.13</v>
       </c>
       <c r="L4" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>
@@ -1008,13 +1008,13 @@
         <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Z4" t="n">
         <v>2.31</v>
@@ -1032,7 +1032,7 @@
         <v>3.21</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         <v>2.55</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AM4" t="n">
         <v>1.97</v>
